--- a/Skyrim_Weapons.xlsx
+++ b/Skyrim_Weapons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c4b9b0ad2635f32/Documentos/GitHub/Proyecto-3-analisis-de-datos-coursera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{E4A9FE78-0CFC-4947-972F-D17E33D220D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D5CE5A-D0C3-4923-BA36-E16DAE42C99D}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{E4A9FE78-0CFC-4947-972F-D17E33D220D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B90C77E7-C912-4636-962D-8BCFABA23F9E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="353">
   <si>
     <t>Name</t>
   </si>
@@ -1050,16 +1050,49 @@
     <t>Chillrend (Lv 1Without perk10)</t>
   </si>
   <si>
-    <t>amount Warhammer</t>
-  </si>
-  <si>
-    <t>amount Greatsword</t>
-  </si>
-  <si>
-    <t>amount  Battleaxe</t>
-  </si>
-  <si>
-    <t>amount Bow</t>
+    <t>Amount  Battleaxe</t>
+  </si>
+  <si>
+    <t>Amount Warhammer</t>
+  </si>
+  <si>
+    <t>Amount Greatsword</t>
+  </si>
+  <si>
+    <t>Amount Archery</t>
+  </si>
+  <si>
+    <t>Amount  Bow</t>
+  </si>
+  <si>
+    <t>Amount Sword</t>
+  </si>
+  <si>
+    <t>Amount Crossbow</t>
+  </si>
+  <si>
+    <t>Amount Dagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amount Bolt</t>
+  </si>
+  <si>
+    <t>Total Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Amount Two-Handed</t>
+  </si>
+  <si>
+    <t>Amount-One-Handed</t>
+  </si>
+  <si>
+    <t>Total Category</t>
+  </si>
+  <si>
+    <t>Amount Mace</t>
+  </si>
+  <si>
+    <t>Amount War Axe</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1085,6 +1118,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1108,11 +1148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,6 +1237,1126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Cantidad de tipos de Armas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$J$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B994-4B9E-A151-387D8F8E372F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3291119860017493E-2"/>
+          <c:y val="0.14856481481481482"/>
+          <c:w val="0.80508442694663174"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1017493</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0614A9-5889-379B-2857-DD2C421177C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1410,12 +2571,15 @@
     <col min="6" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
     <col min="13" max="13" width="18.88671875" customWidth="1"/>
     <col min="14" max="14" width="19.21875" customWidth="1"/>
+    <col min="23" max="23" width="19" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,12 +2607,53 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="V1" t="s">
+        <v>341</v>
+      </c>
+      <c r="W1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1476,20 +2681,68 @@
       <c r="I2" s="1">
         <v>0.5</v>
       </c>
-      <c r="K2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M2" t="s">
-        <v>338</v>
-      </c>
-      <c r="N2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>COUNTIF(G2:G294,"War Axe")</f>
+        <v>37</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(G2:G294,"Dagger")</f>
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(G2:G294,"Crossbow")</f>
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(G2:G294,"Bow")</f>
+        <v>39</v>
+      </c>
+      <c r="N2">
+        <f>COUNTIF(G2:G294,"Battleaxe")</f>
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(G2:G294,"Warhammer")</f>
+        <v>19</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF(G2:G294,"Greatsword")</f>
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF(G2:G294,"Sword")</f>
+        <v>76</v>
+      </c>
+      <c r="R2">
+        <f>COUNTIF(G2:G294,"Mace")</f>
+        <v>21</v>
+      </c>
+      <c r="S2">
+        <f>COUNTIF(G2:G294,"Bolt")</f>
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <f>SUM(J2:S2)</f>
+        <v>271</v>
+      </c>
+      <c r="V2">
+        <f>COUNTIF(H2:H294,"Archery")</f>
+        <v>71</v>
+      </c>
+      <c r="W2">
+        <f>COUNTIF(H2:H294,"Two-Handed")</f>
+        <v>61</v>
+      </c>
+      <c r="X2">
+        <f>COUNTIF(H2:H294,"One-Handed")</f>
+        <v>161</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(V2:X2)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +2771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +2800,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +2829,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +2858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +2887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +2916,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +2945,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +2974,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +3003,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1779,7 +3032,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1808,7 +3061,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,7 +3090,7 @@
         <v>0.68700000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +3119,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2880,8 +4133,8 @@
         <v>74</v>
       </c>
       <c r="H50" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f>REPLACE("TwoNoneHanded",4,4,"-")</f>
+        <v>Two-Handed</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="0"/>
@@ -2911,8 +4164,8 @@
         <v>80</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" ref="H51:H101" si="1">REPLACE("TwoNoneHanded",4,4,"-")</f>
+        <v>Two-Handed</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="0"/>
@@ -2942,8 +4195,8 @@
         <v>74</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="0"/>
@@ -2973,8 +4226,8 @@
         <v>80</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="0"/>
@@ -3004,8 +4257,8 @@
         <v>34</v>
       </c>
       <c r="H54" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="0"/>
@@ -3035,8 +4288,8 @@
         <v>34</v>
       </c>
       <c r="H55" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="0"/>
@@ -3066,8 +4319,8 @@
         <v>74</v>
       </c>
       <c r="H56" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="0"/>
@@ -3097,8 +4350,8 @@
         <v>80</v>
       </c>
       <c r="H57" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="0"/>
@@ -3128,8 +4381,8 @@
         <v>34</v>
       </c>
       <c r="H58" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="0"/>
@@ -3159,8 +4412,8 @@
         <v>80</v>
       </c>
       <c r="H59" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="0"/>
@@ -3190,8 +4443,8 @@
         <v>34</v>
       </c>
       <c r="H60" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="0"/>
@@ -3221,8 +4474,8 @@
         <v>80</v>
       </c>
       <c r="H61" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="0"/>
@@ -3252,8 +4505,8 @@
         <v>74</v>
       </c>
       <c r="H62" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="0"/>
@@ -3283,8 +4536,8 @@
         <v>34</v>
       </c>
       <c r="H63" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I63" s="2">
         <f t="shared" si="0"/>
@@ -3314,8 +4567,8 @@
         <v>74</v>
       </c>
       <c r="H64" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I64" s="2">
         <f t="shared" si="0"/>
@@ -3345,8 +4598,8 @@
         <v>80</v>
       </c>
       <c r="H65" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" si="0"/>
@@ -3376,8 +4629,8 @@
         <v>34</v>
       </c>
       <c r="H66" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I66" s="2">
         <f t="shared" si="0"/>
@@ -3407,8 +4660,8 @@
         <v>74</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I67" s="2">
         <f t="shared" si="0"/>
@@ -3438,8 +4691,8 @@
         <v>80</v>
       </c>
       <c r="H68" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I68" s="2">
         <f t="shared" si="0"/>
@@ -3469,8 +4722,8 @@
         <v>34</v>
       </c>
       <c r="H69" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I69" s="2">
         <f t="shared" si="0"/>
@@ -3500,8 +4753,8 @@
         <v>80</v>
       </c>
       <c r="H70" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I70" s="2">
         <f t="shared" si="0"/>
@@ -3531,8 +4784,8 @@
         <v>34</v>
       </c>
       <c r="H71" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" si="0"/>
@@ -3562,8 +4815,8 @@
         <v>74</v>
       </c>
       <c r="H72" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" si="0"/>
@@ -3593,8 +4846,8 @@
         <v>80</v>
       </c>
       <c r="H73" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I73" s="2">
         <f t="shared" si="0"/>
@@ -3624,8 +4877,8 @@
         <v>34</v>
       </c>
       <c r="H74" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" si="0"/>
@@ -3655,8 +4908,8 @@
         <v>80</v>
       </c>
       <c r="H75" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" si="0"/>
@@ -3686,8 +4939,8 @@
         <v>34</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I76" s="2">
         <f t="shared" si="0"/>
@@ -3717,8 +4970,8 @@
         <v>34</v>
       </c>
       <c r="H77" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I77" s="2">
         <f t="shared" si="0"/>
@@ -3748,8 +5001,8 @@
         <v>74</v>
       </c>
       <c r="H78" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" si="0"/>
@@ -3779,8 +5032,8 @@
         <v>80</v>
       </c>
       <c r="H79" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I79" s="2">
         <f t="shared" si="0"/>
@@ -3810,8 +5063,8 @@
         <v>34</v>
       </c>
       <c r="H80" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" si="0"/>
@@ -3841,8 +5094,8 @@
         <v>74</v>
       </c>
       <c r="H81" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I81" s="2">
         <f t="shared" si="0"/>
@@ -3872,8 +5125,8 @@
         <v>80</v>
       </c>
       <c r="H82" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I82" s="2">
         <f t="shared" si="0"/>
@@ -3903,8 +5156,8 @@
         <v>34</v>
       </c>
       <c r="H83" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I83" s="2">
         <f t="shared" si="0"/>
@@ -3934,8 +5187,8 @@
         <v>74</v>
       </c>
       <c r="H84" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" si="0"/>
@@ -3965,8 +5218,8 @@
         <v>80</v>
       </c>
       <c r="H85" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I85" s="2">
         <f t="shared" si="0"/>
@@ -3996,8 +5249,8 @@
         <v>80</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="0"/>
@@ -4027,8 +5280,8 @@
         <v>34</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I87" s="2">
         <f t="shared" si="0"/>
@@ -4058,8 +5311,8 @@
         <v>74</v>
       </c>
       <c r="H88" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I88" s="2">
         <f t="shared" si="0"/>
@@ -4089,8 +5342,8 @@
         <v>80</v>
       </c>
       <c r="H89" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" si="0"/>
@@ -4120,8 +5373,8 @@
         <v>34</v>
       </c>
       <c r="H90" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" si="0"/>
@@ -4151,8 +5404,8 @@
         <v>74</v>
       </c>
       <c r="H91" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I91" s="2">
         <f t="shared" si="0"/>
@@ -4182,8 +5435,8 @@
         <v>80</v>
       </c>
       <c r="H92" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I92" s="2">
         <f t="shared" si="0"/>
@@ -4213,8 +5466,8 @@
         <v>74</v>
       </c>
       <c r="H93" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" si="0"/>
@@ -4244,8 +5497,8 @@
         <v>74</v>
       </c>
       <c r="H94" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I94" s="2">
         <f t="shared" si="0"/>
@@ -4275,8 +5528,8 @@
         <v>74</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" si="0"/>
@@ -4306,8 +5559,8 @@
         <v>80</v>
       </c>
       <c r="H96" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" si="0"/>
@@ -4337,8 +5590,8 @@
         <v>74</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I97" s="2">
         <f t="shared" si="0"/>
@@ -4368,8 +5621,8 @@
         <v>80</v>
       </c>
       <c r="H98" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" si="0"/>
@@ -4399,8 +5652,8 @@
         <v>80</v>
       </c>
       <c r="H99" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" si="0"/>
@@ -4430,8 +5683,8 @@
         <v>80</v>
       </c>
       <c r="H100" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I100" s="2">
         <f t="shared" si="0"/>
@@ -4461,8 +5714,8 @@
         <v>74</v>
       </c>
       <c r="H101" s="1" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
+        <f t="shared" si="1"/>
+        <v>Two-Handed</v>
       </c>
       <c r="I101" s="2">
         <f t="shared" si="0"/>
@@ -4492,8 +5745,8 @@
         <v>133</v>
       </c>
       <c r="H102" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f>REPLACE("OneNoneHanded",4,4,"-")</f>
+        <v>One-Handed</v>
       </c>
       <c r="I102" s="2">
         <f t="shared" si="0"/>
@@ -4523,8 +5776,8 @@
         <v>135</v>
       </c>
       <c r="H103" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" ref="H103:H166" si="2">REPLACE("OneNoneHanded",4,4,"-")</f>
+        <v>One-Handed</v>
       </c>
       <c r="I103" s="2">
         <f t="shared" si="0"/>
@@ -4554,8 +5807,8 @@
         <v>133</v>
       </c>
       <c r="H104" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I104" s="2">
         <f t="shared" si="0"/>
@@ -4585,8 +5838,8 @@
         <v>133</v>
       </c>
       <c r="H105" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" si="0"/>
@@ -4616,8 +5869,8 @@
         <v>139</v>
       </c>
       <c r="H106" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I106" s="2">
         <f t="shared" si="0"/>
@@ -4647,8 +5900,8 @@
         <v>135</v>
       </c>
       <c r="H107" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I107" s="2">
         <f t="shared" si="0"/>
@@ -4678,8 +5931,8 @@
         <v>133</v>
       </c>
       <c r="H108" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" si="0"/>
@@ -4709,8 +5962,8 @@
         <v>133</v>
       </c>
       <c r="H109" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I109" s="2">
         <f t="shared" si="0"/>
@@ -4740,8 +5993,8 @@
         <v>133</v>
       </c>
       <c r="H110" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" si="0"/>
@@ -4771,8 +6024,8 @@
         <v>133</v>
       </c>
       <c r="H111" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" si="0"/>
@@ -4802,8 +6055,8 @@
         <v>133</v>
       </c>
       <c r="H112" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I112" s="2">
         <f t="shared" si="0"/>
@@ -4833,8 +6086,8 @@
         <v>135</v>
       </c>
       <c r="H113" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I113" s="2">
         <f t="shared" si="0"/>
@@ -4864,8 +6117,8 @@
         <v>133</v>
       </c>
       <c r="H114" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" si="0"/>
@@ -4895,8 +6148,8 @@
         <v>145</v>
       </c>
       <c r="H115" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I115" s="2">
         <f t="shared" si="0"/>
@@ -4926,8 +6179,8 @@
         <v>139</v>
       </c>
       <c r="H116" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I116" s="2">
         <f t="shared" si="0"/>
@@ -4957,8 +6210,8 @@
         <v>135</v>
       </c>
       <c r="H117" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I117" s="2">
         <f t="shared" si="0"/>
@@ -4988,8 +6241,8 @@
         <v>133</v>
       </c>
       <c r="H118" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I118" s="2">
         <f t="shared" si="0"/>
@@ -5019,8 +6272,8 @@
         <v>145</v>
       </c>
       <c r="H119" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I119" s="2">
         <f t="shared" si="0"/>
@@ -5050,8 +6303,8 @@
         <v>139</v>
       </c>
       <c r="H120" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I120" s="2">
         <f t="shared" si="0"/>
@@ -5081,8 +6334,8 @@
         <v>133</v>
       </c>
       <c r="H121" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I121" s="2">
         <f t="shared" si="0"/>
@@ -5112,8 +6365,8 @@
         <v>135</v>
       </c>
       <c r="H122" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I122" s="2">
         <f t="shared" si="0"/>
@@ -5143,8 +6396,8 @@
         <v>133</v>
       </c>
       <c r="H123" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I123" s="2">
         <f t="shared" si="0"/>
@@ -5174,8 +6427,8 @@
         <v>139</v>
       </c>
       <c r="H124" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I124" s="2">
         <f t="shared" si="0"/>
@@ -5205,8 +6458,8 @@
         <v>133</v>
       </c>
       <c r="H125" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I125" s="2">
         <f t="shared" si="0"/>
@@ -5236,8 +6489,8 @@
         <v>139</v>
       </c>
       <c r="H126" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I126" s="2">
         <f t="shared" si="0"/>
@@ -5267,8 +6520,8 @@
         <v>133</v>
       </c>
       <c r="H127" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I127" s="2">
         <f t="shared" si="0"/>
@@ -5298,8 +6551,8 @@
         <v>145</v>
       </c>
       <c r="H128" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I128" s="2">
         <f t="shared" si="0"/>
@@ -5329,8 +6582,8 @@
         <v>139</v>
       </c>
       <c r="H129" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I129" s="2">
         <f t="shared" si="0"/>
@@ -5360,8 +6613,8 @@
         <v>133</v>
       </c>
       <c r="H130" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I130" s="2">
         <f t="shared" si="0"/>
@@ -5391,8 +6644,8 @@
         <v>133</v>
       </c>
       <c r="H131" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I131" s="2">
         <f t="shared" si="0"/>
@@ -5422,8 +6675,8 @@
         <v>133</v>
       </c>
       <c r="H132" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I132" s="2">
         <f t="shared" si="0"/>
@@ -5453,8 +6706,8 @@
         <v>145</v>
       </c>
       <c r="H133" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I133" s="2">
         <f t="shared" si="0"/>
@@ -5484,8 +6737,8 @@
         <v>135</v>
       </c>
       <c r="H134" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I134" s="2">
         <f t="shared" si="0"/>
@@ -5515,8 +6768,8 @@
         <v>135</v>
       </c>
       <c r="H135" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I135" s="2">
         <f t="shared" si="0"/>
@@ -5546,8 +6799,8 @@
         <v>133</v>
       </c>
       <c r="H136" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I136" s="2">
         <f t="shared" si="0"/>
@@ -5577,8 +6830,8 @@
         <v>135</v>
       </c>
       <c r="H137" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I137" s="2">
         <f t="shared" si="0"/>
@@ -5608,8 +6861,8 @@
         <v>133</v>
       </c>
       <c r="H138" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I138" s="2">
         <f t="shared" si="0"/>
@@ -5639,8 +6892,8 @@
         <v>145</v>
       </c>
       <c r="H139" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I139" s="2">
         <f t="shared" si="0"/>
@@ -5670,8 +6923,8 @@
         <v>139</v>
       </c>
       <c r="H140" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I140" s="2">
         <f t="shared" si="0"/>
@@ -5701,8 +6954,8 @@
         <v>135</v>
       </c>
       <c r="H141" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I141" s="2">
         <f t="shared" si="0"/>
@@ -5732,8 +6985,8 @@
         <v>135</v>
       </c>
       <c r="H142" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I142" s="2">
         <f t="shared" si="0"/>
@@ -5763,8 +7016,8 @@
         <v>135</v>
       </c>
       <c r="H143" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I143" s="2">
         <f t="shared" si="0"/>
@@ -5794,8 +7047,8 @@
         <v>133</v>
       </c>
       <c r="H144" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I144" s="2">
         <f t="shared" si="0"/>
@@ -5825,8 +7078,8 @@
         <v>145</v>
       </c>
       <c r="H145" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I145" s="2">
         <f t="shared" si="0"/>
@@ -5856,8 +7109,8 @@
         <v>139</v>
       </c>
       <c r="H146" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I146" s="2">
         <f t="shared" si="0"/>
@@ -5887,8 +7140,8 @@
         <v>135</v>
       </c>
       <c r="H147" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I147" s="2">
         <f t="shared" si="0"/>
@@ -5918,8 +7171,8 @@
         <v>133</v>
       </c>
       <c r="H148" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I148" s="2">
         <f t="shared" si="0"/>
@@ -5949,8 +7202,8 @@
         <v>133</v>
       </c>
       <c r="H149" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I149" s="2">
         <f t="shared" si="0"/>
@@ -5980,8 +7233,8 @@
         <v>133</v>
       </c>
       <c r="H150" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I150" s="2">
         <f t="shared" si="0"/>
@@ -6011,8 +7264,8 @@
         <v>133</v>
       </c>
       <c r="H151" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I151" s="2">
         <f t="shared" si="0"/>
@@ -6042,8 +7295,8 @@
         <v>133</v>
       </c>
       <c r="H152" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I152" s="2">
         <f t="shared" si="0"/>
@@ -6073,8 +7326,8 @@
         <v>133</v>
       </c>
       <c r="H153" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I153" s="2">
         <f t="shared" si="0"/>
@@ -6104,8 +7357,8 @@
         <v>139</v>
       </c>
       <c r="H154" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I154" s="2">
         <f t="shared" si="0"/>
@@ -6135,8 +7388,8 @@
         <v>133</v>
       </c>
       <c r="H155" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I155" s="2">
         <f t="shared" si="0"/>
@@ -6166,8 +7419,8 @@
         <v>139</v>
       </c>
       <c r="H156" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I156" s="2">
         <f t="shared" si="0"/>
@@ -6197,8 +7450,8 @@
         <v>145</v>
       </c>
       <c r="H157" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I157" s="2">
         <f t="shared" si="0"/>
@@ -6228,8 +7481,8 @@
         <v>135</v>
       </c>
       <c r="H158" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I158" s="2">
         <f t="shared" si="0"/>
@@ -6259,8 +7512,8 @@
         <v>135</v>
       </c>
       <c r="H159" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I159" s="2">
         <f t="shared" si="0"/>
@@ -6290,8 +7543,8 @@
         <v>135</v>
       </c>
       <c r="H160" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I160" s="2">
         <f t="shared" si="0"/>
@@ -6321,8 +7574,8 @@
         <v>133</v>
       </c>
       <c r="H161" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I161" s="2">
         <f t="shared" si="0"/>
@@ -6352,8 +7605,8 @@
         <v>133</v>
       </c>
       <c r="H162" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I162" s="2">
         <f t="shared" si="0"/>
@@ -6383,8 +7636,8 @@
         <v>133</v>
       </c>
       <c r="H163" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I163" s="2">
         <f t="shared" si="0"/>
@@ -6414,8 +7667,8 @@
         <v>145</v>
       </c>
       <c r="H164" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I164" s="2">
         <f t="shared" si="0"/>
@@ -6445,8 +7698,8 @@
         <v>145</v>
       </c>
       <c r="H165" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I165" s="2">
         <f t="shared" si="0"/>
@@ -6476,8 +7729,8 @@
         <v>145</v>
       </c>
       <c r="H166" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="2"/>
+        <v>One-Handed</v>
       </c>
       <c r="I166" s="2">
         <f t="shared" si="0"/>
@@ -6507,8 +7760,8 @@
         <v>135</v>
       </c>
       <c r="H167" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" ref="H167:H230" si="3">REPLACE("OneNoneHanded",4,4,"-")</f>
+        <v>One-Handed</v>
       </c>
       <c r="I167" s="2">
         <f t="shared" si="0"/>
@@ -6538,8 +7791,8 @@
         <v>135</v>
       </c>
       <c r="H168" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I168" s="2">
         <f t="shared" si="0"/>
@@ -6569,8 +7822,8 @@
         <v>135</v>
       </c>
       <c r="H169" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I169" s="2">
         <f t="shared" si="0"/>
@@ -6600,8 +7853,8 @@
         <v>133</v>
       </c>
       <c r="H170" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I170" s="2">
         <f t="shared" si="0"/>
@@ -6631,8 +7884,8 @@
         <v>133</v>
       </c>
       <c r="H171" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I171" s="2">
         <f t="shared" si="0"/>
@@ -6662,8 +7915,8 @@
         <v>133</v>
       </c>
       <c r="H172" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I172" s="2">
         <f t="shared" si="0"/>
@@ -6693,8 +7946,8 @@
         <v>145</v>
       </c>
       <c r="H173" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I173" s="2">
         <f t="shared" si="0"/>
@@ -6724,8 +7977,8 @@
         <v>145</v>
       </c>
       <c r="H174" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I174" s="2">
         <f t="shared" si="0"/>
@@ -6755,8 +8008,8 @@
         <v>145</v>
       </c>
       <c r="H175" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I175" s="2">
         <f t="shared" si="0"/>
@@ -6786,8 +8039,8 @@
         <v>193</v>
       </c>
       <c r="H176" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I176" s="2">
         <f t="shared" si="0"/>
@@ -6817,8 +8070,8 @@
         <v>139</v>
       </c>
       <c r="H177" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I177" s="2">
         <f t="shared" si="0"/>
@@ -6848,8 +8101,8 @@
         <v>139</v>
       </c>
       <c r="H178" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I178" s="2">
         <f t="shared" si="0"/>
@@ -6879,8 +8132,8 @@
         <v>135</v>
       </c>
       <c r="H179" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I179" s="2">
         <f t="shared" si="0"/>
@@ -6910,8 +8163,8 @@
         <v>133</v>
       </c>
       <c r="H180" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I180" s="2">
         <f t="shared" si="0"/>
@@ -6941,8 +8194,8 @@
         <v>145</v>
       </c>
       <c r="H181" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I181" s="2">
         <f t="shared" si="0"/>
@@ -6972,8 +8225,8 @@
         <v>139</v>
       </c>
       <c r="H182" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I182" s="2">
         <f t="shared" si="0"/>
@@ -7003,8 +8256,8 @@
         <v>133</v>
       </c>
       <c r="H183" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I183" s="2">
         <f t="shared" si="0"/>
@@ -7034,8 +8287,8 @@
         <v>135</v>
       </c>
       <c r="H184" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I184" s="2">
         <f t="shared" si="0"/>
@@ -7065,8 +8318,8 @@
         <v>145</v>
       </c>
       <c r="H185" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I185" s="2">
         <f t="shared" si="0"/>
@@ -7096,8 +8349,8 @@
         <v>135</v>
       </c>
       <c r="H186" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I186" s="2">
         <f t="shared" si="0"/>
@@ -7127,8 +8380,8 @@
         <v>133</v>
       </c>
       <c r="H187" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I187" s="2">
         <f t="shared" si="0"/>
@@ -7158,8 +8411,8 @@
         <v>135</v>
       </c>
       <c r="H188" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I188" s="2">
         <f t="shared" si="0"/>
@@ -7189,8 +8442,8 @@
         <v>133</v>
       </c>
       <c r="H189" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I189" s="2">
         <f t="shared" si="0"/>
@@ -7220,8 +8473,8 @@
         <v>135</v>
       </c>
       <c r="H190" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I190" s="2">
         <f t="shared" si="0"/>
@@ -7251,8 +8504,8 @@
         <v>133</v>
       </c>
       <c r="H191" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I191" s="2">
         <f t="shared" si="0"/>
@@ -7282,8 +8535,8 @@
         <v>133</v>
       </c>
       <c r="H192" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I192" s="2">
         <f t="shared" si="0"/>
@@ -7313,8 +8566,8 @@
         <v>133</v>
       </c>
       <c r="H193" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I193" s="2">
         <f t="shared" si="0"/>
@@ -7344,8 +8597,8 @@
         <v>133</v>
       </c>
       <c r="H194" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I194" s="2">
         <f t="shared" si="0"/>
@@ -7375,8 +8628,8 @@
         <v>135</v>
       </c>
       <c r="H195" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I195" s="2">
         <f t="shared" si="0"/>
@@ -7406,8 +8659,8 @@
         <v>133</v>
       </c>
       <c r="H196" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I196" s="2">
         <f t="shared" si="0"/>
@@ -7437,8 +8690,8 @@
         <v>145</v>
       </c>
       <c r="H197" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I197" s="2">
         <f t="shared" si="0"/>
@@ -7468,8 +8721,8 @@
         <v>139</v>
       </c>
       <c r="H198" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I198" s="2">
         <f t="shared" si="0"/>
@@ -7499,8 +8752,8 @@
         <v>133</v>
       </c>
       <c r="H199" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I199" s="2">
         <f t="shared" si="0"/>
@@ -7530,8 +8783,8 @@
         <v>135</v>
       </c>
       <c r="H200" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I200" s="2">
         <f t="shared" si="0"/>
@@ -7561,8 +8814,8 @@
         <v>133</v>
       </c>
       <c r="H201" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I201" s="2">
         <f t="shared" si="0"/>
@@ -7592,8 +8845,8 @@
         <v>133</v>
       </c>
       <c r="H202" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I202" s="2">
         <f t="shared" si="0"/>
@@ -7623,8 +8876,8 @@
         <v>133</v>
       </c>
       <c r="H203" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I203" s="2">
         <f t="shared" si="0"/>
@@ -7654,8 +8907,8 @@
         <v>133</v>
       </c>
       <c r="H204" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I204" s="2">
         <f t="shared" si="0"/>
@@ -7685,8 +8938,8 @@
         <v>133</v>
       </c>
       <c r="H205" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I205" s="2">
         <f t="shared" si="0"/>
@@ -7716,8 +8969,8 @@
         <v>133</v>
       </c>
       <c r="H206" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I206" s="2">
         <f t="shared" si="0"/>
@@ -7747,8 +9000,8 @@
         <v>135</v>
       </c>
       <c r="H207" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I207" s="2">
         <f t="shared" si="0"/>
@@ -7778,8 +9031,8 @@
         <v>193</v>
       </c>
       <c r="H208" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I208" s="2">
         <f t="shared" si="0"/>
@@ -7809,8 +9062,8 @@
         <v>135</v>
       </c>
       <c r="H209" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I209" s="2">
         <f t="shared" si="0"/>
@@ -7840,8 +9093,8 @@
         <v>133</v>
       </c>
       <c r="H210" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I210" s="2">
         <f t="shared" si="0"/>
@@ -7871,8 +9124,8 @@
         <v>135</v>
       </c>
       <c r="H211" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I211" s="2">
         <f t="shared" si="0"/>
@@ -7902,8 +9155,8 @@
         <v>133</v>
       </c>
       <c r="H212" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I212" s="2">
         <f t="shared" si="0"/>
@@ -7933,8 +9186,8 @@
         <v>145</v>
       </c>
       <c r="H213" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I213" s="2">
         <f t="shared" si="0"/>
@@ -7964,8 +9217,8 @@
         <v>139</v>
       </c>
       <c r="H214" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I214" s="2">
         <f t="shared" si="0"/>
@@ -7995,8 +9248,8 @@
         <v>133</v>
       </c>
       <c r="H215" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I215" s="2">
         <f t="shared" si="0"/>
@@ -8026,8 +9279,8 @@
         <v>135</v>
       </c>
       <c r="H216" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I216" s="2">
         <f t="shared" si="0"/>
@@ -8057,8 +9310,8 @@
         <v>133</v>
       </c>
       <c r="H217" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I217" s="2">
         <f t="shared" si="0"/>
@@ -8088,8 +9341,8 @@
         <v>145</v>
       </c>
       <c r="H218" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I218" s="2">
         <f t="shared" si="0"/>
@@ -8119,8 +9372,8 @@
         <v>139</v>
       </c>
       <c r="H219" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I219" s="2">
         <f t="shared" si="0"/>
@@ -8150,8 +9403,8 @@
         <v>135</v>
       </c>
       <c r="H220" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I220" s="2">
         <f t="shared" si="0"/>
@@ -8181,8 +9434,8 @@
         <v>133</v>
       </c>
       <c r="H221" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I221" s="2">
         <f t="shared" si="0"/>
@@ -8212,8 +9465,8 @@
         <v>145</v>
       </c>
       <c r="H222" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I222" s="2">
         <f t="shared" si="0"/>
@@ -8243,8 +9496,8 @@
         <v>139</v>
       </c>
       <c r="H223" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I223" s="2">
         <f t="shared" si="0"/>
@@ -8274,8 +9527,8 @@
         <v>133</v>
       </c>
       <c r="H224" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I224" s="2">
         <f t="shared" si="0"/>
@@ -8305,8 +9558,8 @@
         <v>135</v>
       </c>
       <c r="H225" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I225" s="2">
         <f t="shared" si="0"/>
@@ -8336,8 +9589,8 @@
         <v>133</v>
       </c>
       <c r="H226" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I226" s="2">
         <f t="shared" si="0"/>
@@ -8367,8 +9620,8 @@
         <v>145</v>
       </c>
       <c r="H227" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I227" s="2">
         <f t="shared" si="0"/>
@@ -8398,8 +9651,8 @@
         <v>139</v>
       </c>
       <c r="H228" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I228" s="2">
         <f t="shared" si="0"/>
@@ -8429,8 +9682,8 @@
         <v>133</v>
       </c>
       <c r="H229" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I229" s="2">
         <f t="shared" si="0"/>
@@ -8460,8 +9713,8 @@
         <v>133</v>
       </c>
       <c r="H230" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="3"/>
+        <v>One-Handed</v>
       </c>
       <c r="I230" s="2">
         <f t="shared" si="0"/>
@@ -8491,8 +9744,8 @@
         <v>133</v>
       </c>
       <c r="H231" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" ref="H231:H262" si="4">REPLACE("OneNoneHanded",4,4,"-")</f>
+        <v>One-Handed</v>
       </c>
       <c r="I231" s="2">
         <f t="shared" si="0"/>
@@ -8522,8 +9775,8 @@
         <v>133</v>
       </c>
       <c r="H232" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I232" s="2">
         <f t="shared" si="0"/>
@@ -8553,8 +9806,8 @@
         <v>133</v>
       </c>
       <c r="H233" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I233" s="2">
         <f t="shared" si="0"/>
@@ -8584,8 +9837,8 @@
         <v>139</v>
       </c>
       <c r="H234" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I234" s="2">
         <f t="shared" si="0"/>
@@ -8615,8 +9868,8 @@
         <v>135</v>
       </c>
       <c r="H235" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I235" s="2">
         <f t="shared" si="0"/>
@@ -8646,8 +9899,8 @@
         <v>135</v>
       </c>
       <c r="H236" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I236" s="2">
         <f t="shared" si="0"/>
@@ -8677,8 +9930,8 @@
         <v>133</v>
       </c>
       <c r="H237" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I237" s="2">
         <f t="shared" si="0"/>
@@ -8708,8 +9961,8 @@
         <v>135</v>
       </c>
       <c r="H238" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I238" s="2">
         <f t="shared" si="0"/>
@@ -8739,8 +9992,8 @@
         <v>133</v>
       </c>
       <c r="H239" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I239" s="2">
         <f t="shared" si="0"/>
@@ -8770,8 +10023,8 @@
         <v>145</v>
       </c>
       <c r="H240" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I240" s="2">
         <f t="shared" si="0"/>
@@ -8801,8 +10054,8 @@
         <v>139</v>
       </c>
       <c r="H241" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I241" s="2">
         <f t="shared" si="0"/>
@@ -8832,8 +10085,8 @@
         <v>133</v>
       </c>
       <c r="H242" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I242" s="2">
         <f t="shared" si="0"/>
@@ -8863,8 +10116,8 @@
         <v>133</v>
       </c>
       <c r="H243" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I243" s="2">
         <f t="shared" si="0"/>
@@ -8894,8 +10147,8 @@
         <v>133</v>
       </c>
       <c r="H244" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I244" s="2">
         <f t="shared" si="0"/>
@@ -8925,8 +10178,8 @@
         <v>133</v>
       </c>
       <c r="H245" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I245" s="2">
         <f t="shared" si="0"/>
@@ -8956,8 +10209,8 @@
         <v>133</v>
       </c>
       <c r="H246" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I246" s="2">
         <f t="shared" si="0"/>
@@ -8987,8 +10240,8 @@
         <v>133</v>
       </c>
       <c r="H247" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I247" s="2">
         <f t="shared" si="0"/>
@@ -9018,8 +10271,8 @@
         <v>133</v>
       </c>
       <c r="H248" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I248" s="2">
         <f t="shared" si="0"/>
@@ -9049,8 +10302,8 @@
         <v>135</v>
       </c>
       <c r="H249" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I249" s="2">
         <f t="shared" si="0"/>
@@ -9080,8 +10333,8 @@
         <v>139</v>
       </c>
       <c r="H250" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I250" s="2">
         <f t="shared" si="0"/>
@@ -9111,8 +10364,8 @@
         <v>133</v>
       </c>
       <c r="H251" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I251" s="2">
         <f t="shared" si="0"/>
@@ -9142,8 +10395,8 @@
         <v>139</v>
       </c>
       <c r="H252" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I252" s="2">
         <f t="shared" si="0"/>
@@ -9173,8 +10426,8 @@
         <v>133</v>
       </c>
       <c r="H253" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I253" s="2">
         <f t="shared" si="0"/>
@@ -9204,8 +10457,8 @@
         <v>133</v>
       </c>
       <c r="H254" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I254" s="2">
         <f t="shared" si="0"/>
@@ -9235,8 +10488,8 @@
         <v>139</v>
       </c>
       <c r="H255" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I255" s="2">
         <f t="shared" si="0"/>
@@ -9266,8 +10519,8 @@
         <v>139</v>
       </c>
       <c r="H256" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I256" s="2">
         <f t="shared" si="0"/>
@@ -9297,8 +10550,8 @@
         <v>135</v>
       </c>
       <c r="H257" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I257" s="2">
         <f t="shared" si="0"/>
@@ -9328,8 +10581,8 @@
         <v>135</v>
       </c>
       <c r="H258" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I258" s="2">
         <f t="shared" si="0"/>
@@ -9359,8 +10612,8 @@
         <v>133</v>
       </c>
       <c r="H259" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I259" s="2">
         <f t="shared" si="0"/>
@@ -9390,8 +10643,8 @@
         <v>133</v>
       </c>
       <c r="H260" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I260" s="2">
         <f t="shared" si="0"/>
@@ -9421,8 +10674,8 @@
         <v>139</v>
       </c>
       <c r="H261" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I261" s="2">
         <f t="shared" si="0"/>
@@ -9452,8 +10705,8 @@
         <v>133</v>
       </c>
       <c r="H262" s="1" t="str">
-        <f>REPLACE("OneWithout perkHanded",4,4,"-")</f>
-        <v>One-out perkHanded</v>
+        <f t="shared" si="4"/>
+        <v>One-Handed</v>
       </c>
       <c r="I262" s="2">
         <f t="shared" si="0"/>
@@ -10426,10 +11679,7 @@
     <row r="298" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="299" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="300" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="str">
-        <f>REPLACE("TwoWithout perkHanded",4,4,"-")</f>
-        <v>Two-out perkHanded</v>
-      </c>
+      <c r="A300" s="3"/>
     </row>
     <row r="301" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="302" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11133,6 +12383,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Skyrim_Weapons.xlsx
+++ b/Skyrim_Weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c4b9b0ad2635f32/Documentos/GitHub/Proyecto-3-analisis-de-datos-coursera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{E4A9FE78-0CFC-4947-972F-D17E33D220D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B90C77E7-C912-4636-962D-8BCFABA23F9E}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{E4A9FE78-0CFC-4947-972F-D17E33D220D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF078CF-ED20-4921-A363-5B98BACF79F7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="354">
   <si>
     <t>Name</t>
   </si>
@@ -1093,6 +1093,9 @@
   </si>
   <si>
     <t>Amount War Axe</t>
+  </si>
+  <si>
+    <t>Amount Arrow</t>
   </si>
 </sst>
 </file>
@@ -1160,74 +1163,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1260,7 +1195,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1274,7 +1209,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR"/>
-              <a:t>Cantidad de tipos de Armas</a:t>
+              <a:t>Comparacion Tipos de Armas</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1292,9 +1227,418 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$J$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Amount War Axe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amount Dagger</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amount Crossbow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amount  Bow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Amount  Battleaxe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Amount Warhammer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amount Greatsword</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Amount Sword</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Amount Mace</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Amount Bolt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Amount Arrow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$J$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AE8-4125-8DC6-4409B0805FA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="444080256"/>
+        <c:axId val="417978448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="444080256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417978448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417978448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444080256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Comparacion Tipos de Armas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1326,17 +1670,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1349,17 +1689,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1372,17 +1708,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1395,17 +1727,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1418,17 +1746,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1441,17 +1765,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1466,17 +1786,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1491,17 +1807,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1516,17 +1828,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dPt>
@@ -1541,17 +1849,34 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -1593,7 +1918,7 @@
               <c:spPr>
                 <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="35000"/>
                       <a:lumOff val="65000"/>
                     </a:schemeClr>
@@ -1607,12 +1932,53 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$J$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Amount War Axe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Amount Dagger</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amount Crossbow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Amount  Bow</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Amount  Battleaxe</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Amount Warhammer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amount Greatsword</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Amount Sword</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Amount Mace</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Amount Bolt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Amount Arrow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$J$2:$S$2</c:f>
+              <c:f>Worksheet!$J$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>37</c:v>
                 </c:pt>
@@ -1643,12 +2009,15 @@
                 <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B994-4B9E-A151-387D8F8E372F}"/>
+              <c16:uniqueId val="{00000000-3096-4808-8BA5-73680B440068}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1673,20 +2042,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.3291119860017493E-2"/>
-          <c:y val="0.14856481481481482"/>
-          <c:w val="0.80508442694663174"/>
-          <c:h val="7.8125546806649168E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1696,10 +2059,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1725,12 +2088,361 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Comparacion Categorias de Armas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$V$1:$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Amount Archery</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Amount Two-Handed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amount-One-Handed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$V$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C181-4593-B712-E03BA470021E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="443805216"/>
+        <c:axId val="445138016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443805216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445138016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445138016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443805216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1797,8 +2509,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1809,7 +2601,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1821,6 +2613,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1844,16 +2647,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1885,54 +2691,29 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1947,8 +2728,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1956,22 +2739,19 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2014,23 +2794,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2135,8 +2914,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2231,7 +3010,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2247,7 +3026,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2268,20 +3047,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2314,27 +3092,1125 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
+      <xdr:colOff>165848</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>58271</xdr:rowOff>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1017493</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>936812</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0614A9-5889-379B-2857-DD2C421177C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5032B0D3-CA34-98AC-0358-87763BE04F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,6 +4223,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1250576</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>977153</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD5B1E6-C299-587D-80F1-2DA93DA668E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>954740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0298A58F-355D-225D-9B1E-7E07513A9DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2559,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2638,6 +4586,9 @@
         <v>346</v>
       </c>
       <c r="T1" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>347</v>
       </c>
       <c r="V1" t="s">
@@ -2722,8 +4673,12 @@
         <v>8</v>
       </c>
       <c r="T2">
-        <f>SUM(J2:S2)</f>
-        <v>271</v>
+        <f>COUNTIF(G2:G294,"Arrow")</f>
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <f>SUM(J2:T2)</f>
+        <v>291</v>
       </c>
       <c r="V2">
         <f>COUNTIF(H2:H294,"Archery")</f>
